--- a/data_excel/972.xlsx
+++ b/data_excel/972.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>叔叔</t>
   </si>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -589,12 +593,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
